--- a/development/06-sections/truss data.xlsx
+++ b/development/06-sections/truss data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed\Desktop\Graduation-project\development\06-sections\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\Desktop\Graduation-project\development\06-sections\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11976" windowHeight="4752"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -270,16 +270,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
@@ -288,14 +290,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -303,11 +302,12 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
@@ -594,48 +594,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="9" width="11" customWidth="1"/>
     <col min="10" max="11" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -657,7 +657,7 @@
       <c r="G3" s="4">
         <v>6</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="11">
         <v>7</v>
       </c>
       <c r="I3" s="4">
@@ -673,7 +673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -709,7 +709,7 @@
       </c>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
@@ -745,7 +745,7 @@
       </c>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
@@ -781,7 +781,7 @@
       </c>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
@@ -817,7 +817,7 @@
       </c>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
@@ -853,7 +853,7 @@
       </c>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
@@ -899,7 +899,7 @@
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
@@ -948,7 +948,7 @@
         <v>37947920</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
@@ -984,7 +984,7 @@
       </c>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>17</v>
       </c>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>14</v>
       </c>
@@ -1151,60 +1151,60 @@
         <v>60778720</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="18">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="19">
         <f>((L15-L10)/L15)*100</f>
         <v>37.563805226566139</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="L16" s="11" t="s">
+      <c r="L16" s="21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="18"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>13</v>
       </c>
@@ -1239,83 +1239,83 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="22" t="str">
+      <c r="B19" s="12" t="str">
         <f>FIXED(MAX(5,MAX(B5,B6)/(1.04*B18*0.1*4))+2*0.1*B18,1)</f>
         <v>9.2</v>
       </c>
-      <c r="C19" s="22" t="str">
+      <c r="C19" s="12" t="str">
         <f t="shared" ref="C19:K19" si="4">FIXED(MAX(5,MAX(C5,C6)/(1.04*C18*0.1*4))+2*0.1*C18,1)</f>
         <v>7.7</v>
       </c>
-      <c r="D19" s="22" t="str">
+      <c r="D19" s="12" t="str">
         <f t="shared" si="4"/>
         <v>6.4</v>
       </c>
-      <c r="E19" s="22" t="str">
+      <c r="E19" s="12" t="str">
         <f t="shared" si="4"/>
         <v>5.8</v>
       </c>
-      <c r="F19" s="22" t="str">
+      <c r="F19" s="12" t="str">
         <f t="shared" si="4"/>
         <v>5.8</v>
       </c>
-      <c r="G19" s="22" t="str">
+      <c r="G19" s="12" t="str">
         <f t="shared" si="4"/>
         <v>5.8</v>
       </c>
-      <c r="H19" s="22" t="str">
+      <c r="H19" s="12" t="str">
         <f t="shared" si="4"/>
         <v>5.8</v>
       </c>
-      <c r="I19" s="22" t="str">
+      <c r="I19" s="12" t="str">
         <f t="shared" si="4"/>
         <v>5.8</v>
       </c>
-      <c r="J19" s="22" t="str">
+      <c r="J19" s="12" t="str">
         <f t="shared" si="4"/>
         <v>5.8</v>
       </c>
-      <c r="K19" s="22" t="str">
+      <c r="K19" s="12" t="str">
         <f t="shared" si="4"/>
         <v>5.8</v>
       </c>
-      <c r="L19" s="22"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="L19" s="12"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>0</v>
       </c>
@@ -1337,7 +1337,7 @@
       <c r="G24" s="4">
         <v>6</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H24" s="11">
         <v>7</v>
       </c>
       <c r="I24" s="4">
@@ -1353,7 +1353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>25</v>
       </c>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>24</v>
       </c>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>23</v>
       </c>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>22</v>
       </c>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>21</v>
       </c>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>20</v>
       </c>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>19</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>38248031.999999978</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>18</v>
       </c>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>17</v>
       </c>
@@ -1700,7 +1700,7 @@
       </c>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>16</v>
       </c>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>15</v>
       </c>
@@ -1782,7 +1782,7 @@
       </c>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>14</v>
       </c>
@@ -1831,24 +1831,24 @@
         <v>39945600</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37" s="18">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="19">
         <f>((L36-L31)/L36)*100</f>
         <v>4.2496995914444202</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="18"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>13</v>
       </c>
@@ -1883,83 +1883,83 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B40" s="22" t="str">
+      <c r="B40" s="12" t="str">
         <f>FIXED(MAX(5,MAX(B26,B27)/(1.04*B39*0.1*4))+2*0.1*B39,1)</f>
         <v>5.8</v>
       </c>
-      <c r="C40" s="22" t="str">
+      <c r="C40" s="12" t="str">
         <f t="shared" ref="C40" si="41">FIXED(MAX(5,MAX(C26,C27)/(1.04*C39*0.1*4))+2*0.1*C39,1)</f>
         <v>7.2</v>
       </c>
-      <c r="D40" s="22" t="str">
+      <c r="D40" s="12" t="str">
         <f t="shared" ref="D40" si="42">FIXED(MAX(5,MAX(D26,D27)/(1.04*D39*0.1*4))+2*0.1*D39,1)</f>
         <v>11.0</v>
       </c>
-      <c r="E40" s="22" t="str">
+      <c r="E40" s="12" t="str">
         <f t="shared" ref="E40" si="43">FIXED(MAX(5,MAX(E26,E27)/(1.04*E39*0.1*4))+2*0.1*E39,1)</f>
         <v>11.6</v>
       </c>
-      <c r="F40" s="22" t="str">
+      <c r="F40" s="12" t="str">
         <f t="shared" ref="F40" si="44">FIXED(MAX(5,MAX(F26,F27)/(1.04*F39*0.1*4))+2*0.1*F39,1)</f>
         <v>13.5</v>
       </c>
-      <c r="G40" s="22" t="str">
+      <c r="G40" s="12" t="str">
         <f t="shared" ref="G40" si="45">FIXED(MAX(5,MAX(G26,G27)/(1.04*G39*0.1*4))+2*0.1*G39,1)</f>
         <v>14.6</v>
       </c>
-      <c r="H40" s="22" t="str">
+      <c r="H40" s="12" t="str">
         <f t="shared" ref="H40" si="46">FIXED(MAX(5,MAX(H26,H27)/(1.04*H39*0.1*4))+2*0.1*H39,1)</f>
         <v>16.1</v>
       </c>
-      <c r="I40" s="22" t="str">
+      <c r="I40" s="12" t="str">
         <f t="shared" ref="I40" si="47">FIXED(MAX(5,MAX(I26,I27)/(1.04*I39*0.1*4))+2*0.1*I39,1)</f>
         <v>16.1</v>
       </c>
-      <c r="J40" s="22" t="str">
+      <c r="J40" s="12" t="str">
         <f t="shared" ref="J40" si="48">FIXED(MAX(5,MAX(J26,J27)/(1.04*J39*0.1*4))+2*0.1*J39,1)</f>
         <v>16.1</v>
       </c>
-      <c r="K40" s="22" t="str">
+      <c r="K40" s="12" t="str">
         <f t="shared" ref="K40" si="49">FIXED(MAX(5,MAX(K26,K27)/(1.04*K39*0.1*4))+2*0.1*K39,1)</f>
         <v>16.1</v>
       </c>
-      <c r="L40" s="22"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
+      <c r="L40" s="12"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>0</v>
       </c>
@@ -1981,7 +1981,7 @@
       <c r="G45" s="4">
         <v>6</v>
       </c>
-      <c r="H45" s="21">
+      <c r="H45" s="11">
         <v>7</v>
       </c>
       <c r="I45" s="4">
@@ -1997,7 +1997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>25</v>
       </c>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>24</v>
       </c>
@@ -2069,7 +2069,7 @@
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>23</v>
       </c>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>22</v>
       </c>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>21</v>
       </c>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>20</v>
       </c>
@@ -2223,7 +2223,7 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>19</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>77232959.999999955</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>18</v>
       </c>
@@ -2308,7 +2308,7 @@
       </c>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>17</v>
       </c>
@@ -2344,7 +2344,7 @@
       </c>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>16</v>
       </c>
@@ -2380,7 +2380,7 @@
       </c>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>15</v>
       </c>
@@ -2426,7 +2426,7 @@
       </c>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>14</v>
       </c>
@@ -2475,24 +2475,24 @@
         <v>86001600</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B58" s="18">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="19">
         <f>((L57-L52)/L57)*100</f>
         <v>10.195903332031083</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C58" s="19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="10"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" s="18"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
         <v>13</v>
       </c>
@@ -2527,85 +2527,85 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B61" s="22" t="str">
+      <c r="B61" s="12" t="str">
         <f>FIXED(MAX(5,MAX(B47,B48)/(1.04*B60*0.1*4))+2*0.1*B60,1)</f>
         <v>6.3</v>
       </c>
-      <c r="C61" s="22" t="str">
+      <c r="C61" s="12" t="str">
         <f t="shared" ref="C61" si="86">FIXED(MAX(5,MAX(C47,C48)/(1.04*C60*0.1*4))+2*0.1*C60,1)</f>
         <v>8.1</v>
       </c>
-      <c r="D61" s="22" t="str">
+      <c r="D61" s="12" t="str">
         <f t="shared" ref="D61" si="87">FIXED(MAX(5,MAX(D47,D48)/(1.04*D60*0.1*4))+2*0.1*D60,1)</f>
         <v>10.4</v>
       </c>
-      <c r="E61" s="22" t="str">
+      <c r="E61" s="12" t="str">
         <f t="shared" ref="E61" si="88">FIXED(MAX(5,MAX(E47,E48)/(1.04*E60*0.1*4))+2*0.1*E60,1)</f>
         <v>12.3</v>
       </c>
-      <c r="F61" s="22" t="str">
+      <c r="F61" s="12" t="str">
         <f t="shared" ref="F61" si="89">FIXED(MAX(5,MAX(F47,F48)/(1.04*F60*0.1*4))+2*0.1*F60,1)</f>
         <v>13.5</v>
       </c>
-      <c r="G61" s="22" t="str">
+      <c r="G61" s="12" t="str">
         <f t="shared" ref="G61" si="90">FIXED(MAX(5,MAX(G47,G48)/(1.04*G60*0.1*4))+2*0.1*G60,1)</f>
         <v>14.6</v>
       </c>
-      <c r="H61" s="22" t="str">
+      <c r="H61" s="12" t="str">
         <f t="shared" ref="H61" si="91">FIXED(MAX(5,MAX(H47,H48)/(1.04*H60*0.1*4))+2*0.1*H60,1)</f>
         <v>15.0</v>
       </c>
-      <c r="I61" s="22" t="str">
+      <c r="I61" s="12" t="str">
         <f t="shared" ref="I61" si="92">FIXED(MAX(5,MAX(I47,I48)/(1.04*I60*0.1*4))+2*0.1*I60,1)</f>
         <v>15.0</v>
       </c>
-      <c r="J61" s="22" t="str">
+      <c r="J61" s="12" t="str">
         <f t="shared" ref="J61" si="93">FIXED(MAX(5,MAX(J47,J48)/(1.04*J60*0.1*4))+2*0.1*J60,1)</f>
         <v>15.0</v>
       </c>
-      <c r="K61" s="22" t="str">
+      <c r="K61" s="12" t="str">
         <f t="shared" ref="K61" si="94">FIXED(MAX(5,MAX(K47,K48)/(1.04*K60*0.1*4))+2*0.1*K60,1)</f>
         <v>14.6</v>
       </c>
-      <c r="L61" s="22"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="15" t="s">
+      <c r="L61" s="12"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="15"/>
-      <c r="L66" s="15"/>
-      <c r="M66" s="15"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="16"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="16"/>
-      <c r="I67" s="16"/>
-      <c r="J67" s="16"/>
-      <c r="K67" s="16"/>
-      <c r="L67" s="16"/>
-      <c r="M67" s="16"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="13"/>
+      <c r="K66" s="13"/>
+      <c r="L66" s="13"/>
+      <c r="M66" s="13"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67" s="14"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="14"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="14"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>0</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>25</v>
       </c>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="M69" s="2"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>24</v>
       </c>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="M70" s="3"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>23</v>
       </c>
@@ -2763,7 +2763,7 @@
       </c>
       <c r="M71" s="2"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>22</v>
       </c>
@@ -2802,7 +2802,7 @@
       </c>
       <c r="M72" s="3"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>21</v>
       </c>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="M73" s="2"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>20</v>
       </c>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="M74" s="3"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>19</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>34136400</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>18</v>
       </c>
@@ -2983,7 +2983,7 @@
       </c>
       <c r="M76" s="3"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>17</v>
       </c>
@@ -3022,7 +3022,7 @@
       </c>
       <c r="M77" s="2"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>16</v>
       </c>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="M78" s="3"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>15</v>
       </c>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="M79" s="2"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>14</v>
       </c>
@@ -3164,24 +3164,24 @@
         <v>58698600</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B81" s="18">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A81" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B81" s="19">
         <f>((M80-M75)/M80)*100</f>
         <v>41.844609581829886</v>
       </c>
-      <c r="C81" s="18" t="s">
+      <c r="C81" s="19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" s="10"/>
-      <c r="B82" s="19"/>
-      <c r="C82" s="19"/>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A82" s="18"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="20"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
         <v>13</v>
       </c>
@@ -3219,90 +3219,90 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B84" s="22" t="str">
+      <c r="B84" s="12" t="str">
         <f>FIXED(MAX(5,MAX(B70,B71)/(1.04*B83*0.1*4))+2*0.1*B83,1)</f>
         <v>6.3</v>
       </c>
-      <c r="C84" s="22" t="str">
+      <c r="C84" s="12" t="str">
         <f t="shared" ref="C84" si="131">FIXED(MAX(5,MAX(C70,C71)/(1.04*C83*0.1*4))+2*0.1*C83,1)</f>
         <v>6.0</v>
       </c>
-      <c r="D84" s="22" t="str">
+      <c r="D84" s="12" t="str">
         <f t="shared" ref="D84" si="132">FIXED(MAX(5,MAX(D70,D71)/(1.04*D83*0.1*4))+2*0.1*D83,1)</f>
         <v>6.0</v>
       </c>
-      <c r="E84" s="22" t="str">
+      <c r="E84" s="12" t="str">
         <f t="shared" ref="E84" si="133">FIXED(MAX(5,MAX(E70,E71)/(1.04*E83*0.1*4))+2*0.1*E83,1)</f>
         <v>6.0</v>
       </c>
-      <c r="F84" s="22" t="str">
+      <c r="F84" s="12" t="str">
         <f t="shared" ref="F84" si="134">FIXED(MAX(5,MAX(F70,F71)/(1.04*F83*0.1*4))+2*0.1*F83,1)</f>
         <v>6.0</v>
       </c>
-      <c r="G84" s="22" t="str">
+      <c r="G84" s="12" t="str">
         <f t="shared" ref="G84" si="135">FIXED(MAX(5,MAX(G70,G71)/(1.04*G83*0.1*4))+2*0.1*G83,1)</f>
         <v>6.0</v>
       </c>
-      <c r="H84" s="22" t="str">
+      <c r="H84" s="12" t="str">
         <f t="shared" ref="H84" si="136">FIXED(MAX(5,MAX(H70,H71)/(1.04*H83*0.1*4))+2*0.1*H83,1)</f>
         <v>5.8</v>
       </c>
-      <c r="I84" s="22" t="str">
+      <c r="I84" s="12" t="str">
         <f t="shared" ref="I84" si="137">FIXED(MAX(5,MAX(I70,I71)/(1.04*I83*0.1*4))+2*0.1*I83,1)</f>
         <v>5.8</v>
       </c>
-      <c r="J84" s="22" t="str">
+      <c r="J84" s="12" t="str">
         <f t="shared" ref="J84" si="138">FIXED(MAX(5,MAX(J70,J71)/(1.04*J83*0.1*4))+2*0.1*J83,1)</f>
         <v>5.8</v>
       </c>
-      <c r="K84" s="22" t="str">
+      <c r="K84" s="12" t="str">
         <f t="shared" ref="K84" si="139">FIXED(MAX(5,MAX(K70,K71)/(1.04*K83*0.1*4))+2*0.1*K83,1)</f>
         <v>5.8</v>
       </c>
-      <c r="L84" s="22" t="str">
+      <c r="L84" s="12" t="str">
         <f>FIXED(MAX(5,MAX(L70,L71)/(1.04*L83*0.1*4))+2*0.1*L83,1)</f>
         <v>5.8</v>
       </c>
-      <c r="M84" s="22"/>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="15" t="s">
+      <c r="M84" s="12"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A89" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B89" s="15"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="15"/>
-      <c r="F89" s="15"/>
-      <c r="G89" s="15"/>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="15"/>
-      <c r="K89" s="15"/>
-      <c r="L89" s="15"/>
-      <c r="M89" s="15"/>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" s="16"/>
-      <c r="B90" s="16"/>
-      <c r="C90" s="16"/>
-      <c r="D90" s="16"/>
-      <c r="E90" s="16"/>
-      <c r="F90" s="16"/>
-      <c r="G90" s="16"/>
-      <c r="H90" s="16"/>
-      <c r="I90" s="16"/>
-      <c r="J90" s="16"/>
-      <c r="K90" s="16"/>
-      <c r="L90" s="16"/>
-      <c r="M90" s="16"/>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" s="20" t="s">
+      <c r="B89" s="13"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="13"/>
+      <c r="J89" s="13"/>
+      <c r="K89" s="13"/>
+      <c r="L89" s="13"/>
+      <c r="M89" s="13"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A90" s="14"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="14"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="14"/>
+      <c r="J90" s="14"/>
+      <c r="K90" s="14"/>
+      <c r="L90" s="14"/>
+      <c r="M90" s="14"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A91" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B91" s="7">
@@ -3313,8 +3313,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92" s="20" t="s">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A92" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B92" s="7">
@@ -3325,20 +3325,37 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" s="20" t="s">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A93" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B93" s="17">
+      <c r="B93" s="9">
         <f>((B91-B92)/B91)*100</f>
         <v>23.575153778440743</v>
       </c>
-      <c r="C93" s="17" t="s">
+      <c r="C93" s="9" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A1:L2"/>
+    <mergeCell ref="A22:L23"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
     <mergeCell ref="A89:M90"/>
     <mergeCell ref="A43:L44"/>
     <mergeCell ref="A58:A59"/>
@@ -3348,23 +3365,6 @@
     <mergeCell ref="B81:B82"/>
     <mergeCell ref="C81:C82"/>
     <mergeCell ref="A66:M67"/>
-    <mergeCell ref="A1:L2"/>
-    <mergeCell ref="A22:L23"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
